--- a/Share/Price list/ATALI-15082023.xlsx
+++ b/Share/Price list/ATALI-15082023.xlsx
@@ -7440,8 +7440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A382" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7458,7 +7458,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="81">
         <f ca="1">TODAY()</f>
-        <v>45153</v>
+        <v>45176</v>
       </c>
       <c r="D1" s="81"/>
       <c r="E1" s="81"/>
